--- a/opengl学习.xlsx
+++ b/opengl学习.xlsx
@@ -8,17 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\openglwrok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8812136-FBCB-48FF-9BE0-B13535F267EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9284E381-7B75-4499-8F27-2078176F4F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="你好，三角形" sheetId="1" r:id="rId1"/>
     <sheet name="着色器" sheetId="3" r:id="rId2"/>
     <sheet name="纹理" sheetId="2" r:id="rId3"/>
+    <sheet name="变换" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="401">
   <si>
     <t>顶点数组对象：Vertex Array Object，VAO</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1470,12 +1470,826 @@
     <t>glDrawElements(GL_TRIANGLES, 6, GL_UNSIGNED_INT, 0);</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>向量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向量最基本的定义就是一个方向。或者更正式的说，向量有一个方向(Direction)和大小(Magnitude，也叫做强度或长度)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向量与标量运算</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>标量</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Scalar)只是一个数字（或者说是仅有一个分量的向量）。</t>
+    </r>
+  </si>
+  <si>
+    <t>当把一个向量加/减/乘/除一个标量，我们可以简单的把向量的每个分量分别进行该运算。对于加法来说会像这样:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向量取反</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对一个向量取反(Negate)会将其方向逆转。一个指向东北的向量取反后就指向西南方向了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们在一个向量的每个分量前加负号就可以实现取反了（或者说用-1数乘该向量）:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向量加减</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向量的加法可以被定义为是分量的(Component-wise)相加，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>即将一个向量中的每一个分量加上另一个向量的对应分量：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向量v = (4, 2)和k = (1, 2)可以直观地表示为：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就像普通数字的加减一样，向量的减法等于加上第二个向量的相反向量：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个向量的相减会得到这两个向量指向位置的差。这在我们想要获取两点的差会非常有用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>向量相乘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们使用勾股定理(Pythagoras Theorem)来获取向量的长度(Length)/大小(Magnitude)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果你把向量的x与y分量画出来，该向量会和x与y分量为边形成一个三角形:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为两条边（x和y）是已知的，如果希望知道斜边的长度，我们可以直接通过勾股定理来计算：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>例子中向量(4, 2)的长度等于：4.47</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们可以用任意向量的每个分量除以向量的长度得到它的单位向量：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们把这种方法叫做一个向量的标准化(Normalizing)。单位向量头上有一个^样子的记号。通常单位向量会变得很有用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特别是在我们只关心方向不关心长度的时候（如果改变向量的长度，它的方向并不会改变）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>有一个特殊类型的向量叫做</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>单位向量(Unit Vector)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>。单位向量有一个特别的性质——它的长度是1</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个向量相乘是一种很奇怪的情况。普通的乘法在向量上是没有定义的，因为它在视觉上是没有意义的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>但是在相乘的时候我们有两种特定情况可以选择：一个是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>点乘(Dot Product)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，记作，另一个是</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>叉乘(Cross Product)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>，</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点乘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>两个向量的点乘等于它们的数乘结果乘以两个向量之间夹角的余弦值。</t>
+  </si>
+  <si>
+    <t>现在点积只定义了两个向量的夹角。你也许记得90度的余弦值是0，0度的余弦值是1。使用点乘可以很容易测试两个向量是否正交(Orthogonal)或平行（正交意味着两个向量互为直角）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叉乘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>叉乘只在3D空间中有定义，它需要两个不平行向量作为输入，生成一个正交于两个输入向量的第三个向量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果输入的两个向量也是正交的，那么叉乘之后将会产生3个互相正交的向量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下面的图片展示了3D空间中叉乘的样子：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵就是一个矩形的数字、符号或表达式数组。矩阵中每一项叫做矩阵的元素(Element)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵可以通过(i, j)进行索引，i是行，j是列，这就是上面的矩阵叫做2×3矩阵的原因（3列2行，也叫做矩阵的维度(Dimension)）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和向量一样，矩阵也有非常漂亮的数学属性。矩阵有几个运算，分别是：矩阵加法、减法和乘法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵的加减</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵与标量之间的加减定义如下：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标量值要加到矩阵的每一个元素上。矩阵与标量的减法也相似：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵与矩阵之间的加减就是两个矩阵对应元素的加减运算，所以总体的规则和与标量运算是差不多的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只不过在相同索引下的元素才能进行运算。这也就是说加法和减法只对同维度的矩阵才是有定义的。一个3×2矩阵和一个2×3矩阵（或一个3×3矩阵与4×4矩阵）是不能进行加减的。我们看看两个2×2矩阵是怎样相加的：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵的数乘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和矩阵与标量的加减一样，矩阵与标量之间的乘法也是矩阵的每一个元素分别乘以该标量。下面的例子展示了乘法的过程：</t>
+  </si>
+  <si>
+    <t>矩阵相乘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>现在我们也就能明白为什么这些单独的数字要叫做标量(Scalar)了。简单来说，标量就是用它的值缩放(Scale)矩阵的所有元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵之间的乘法不见得有多复杂，但的确很难让人适应。矩阵乘法基本上意味着遵照规定好的法则进行相乘。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相乘还有一些限制：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有当左侧矩阵的列数与右侧矩阵的行数相等，两个矩阵才能相乘。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵相乘不遵守交换律(Commutative)，也就是说。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看一个两个2×2矩阵相乘的例子：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们首先把左侧矩阵的行和右侧矩阵的列拿出来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>结果矩阵的维度是(n, m)，n等于左侧矩阵的行数，m等于右侧矩阵的列数。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵与向量相乘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目前为止，通过这些教程我们已经相当了解向量了。我们用向量来表示位置，表示颜色，甚至是纹理坐标。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让我们更深入了解一下向量，它其实就是一个N×1矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>N表示向量分量的个数（也叫</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>N维</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(N-dimensional)向量）</t>
+    </r>
+  </si>
+  <si>
+    <t>如果我们有一个M×N矩阵，我们可以用这个矩阵乘以我们的N×1向量，因为这个矩阵的列数等于向量的行数，所以它们就能相乘。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单位矩阵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在OpenGL中，由于某些原因我们通常使用4×4的变换矩阵，而其中最重要的原因就是大部分的向量都是4分量的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们能想到的最简单的变换矩阵就是单位矩阵(Identity Matrix)。单位矩阵是一个除了对角线以外都是0的N×N矩阵。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在下式中可以看到，这种变换矩阵使一个向量完全不变：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>缩放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对一个向量进行缩放(Scaling)就是对向量的长度进行缩放，而保持它的方向不变。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于我们进行的是2维或3维操作，我们可以分别定义一个有2或3个缩放变量的向量，每个变量缩放一个轴(x、y或z)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们先来尝试缩放向量 v=(3,2)。我们可以把向量沿着x轴缩放0.5，使它的宽度缩小为原来的二分之一；</t>
+  </si>
+  <si>
+    <t>我们将沿着y轴把向量的高度缩放为原来的两倍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们看看把向量缩放s = (0.5, 2)倍所获得的是什么样的：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenGL通常是在3D空间进行操作的，对于2D的情况我们可以把z轴缩放1倍，这样z轴的值就不变了</t>
+  </si>
+  <si>
+    <t>我们刚刚的缩放操作是不均匀(Non-uniform)缩放，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为每个轴的缩放因子(Scaling Factor)都不一样。如果每个轴的缩放因子都一样那么就叫均匀缩放(Uniform Scale)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们下面会构造一个变换矩阵来为我们提供缩放功能。我们从单位矩阵了解到，每个对角线元素会分别与向量的对应元素相乘。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果我们把1变为3会怎样？这样子的话，我们就把向量的每个元素乘以3了，这事实上就把向量缩放3倍。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>如果我们把缩放变量表示为</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.8000000000000007"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF008000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.8000000000000007"/>
+        <color rgb="FF008000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>S</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.8000000000000007"/>
+        <color rgb="FF0000FF"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>3</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>我们可以为任意向量</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>(x,y,z)</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>定义一个缩放矩阵：</t>
+    </r>
+  </si>
+  <si>
+    <t>位移</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>位移(Translation)是在原始向量的基础上加上另一个向量从而获得一个在不同位置的新向量的过程，从而在位移向量基础上移动了原始向量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和缩放矩阵一样，在4×4矩阵上有几个特别的位置用来执行特定的操作，对于位移来说它们是第四列最上面的3个值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果我们把位移向量表示为(Tx,Ty,Tz)，我们就能把位移矩阵定义为：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首先我们来定义一个向量的旋转到底是什么。2D或3D空间中的旋转用角(Angle)来表示。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角可以是角度制或弧度制的，周角是360角度或2 PI弧度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用三角学，给定一个角度，可以把一个向量变换为一个经过旋转的新向量。这通常是使用一系列正弦和余弦函数（一般简称sin和cos）各种巧妙的组合得到的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沿x轴旋转：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沿y轴旋转：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>沿z轴旋转：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矩阵的组合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用矩阵进行变换的真正力量在于，根据矩阵之间的乘法，我们可以把多个变换组合到一个矩阵中。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让我们看看我们是否能生成一个变换矩阵，让它组合多个变换。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>假设我们有一个顶点(x, y, z)，我们希望将其缩放2倍，然后位移(1, 2, 3)个单位。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当矩阵相乘时我们先写位移再写缩放变换的。矩阵乘法是不遵守交换律的，这意味着它们的顺序很重要。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当矩阵相乘时，在最右边的矩阵是第一个与向量相乘的，所以你应该从右向左读这个乘法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建议您在组合矩阵时，先进行缩放操作，然后是旋转，最后才是位移，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实践</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GLM是OpenGL Mathematics的缩写，它是一个只有头文件的库，也就是说我们只需包含对应的头文件就行了，不用链接和编译。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenGL没有自带任何的矩阵和向量知识，所以我们必须定义自己的数学类和函数。在教程中我们更希望抽象所有的数学细节，使用已经做好了的数学库。专门为OpenGL量身定做的数学库，那就是GLM。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GLM库从0.9.9版本起，默认会将矩阵类型初始化为一个零矩阵（所有元素均为0），而不是单位矩阵（对角元素为1，其它元素为0）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果你使用的是0.9.9或0.9.9以上的版本，你需要将所有的矩阵初始化改为 glm::mat4 mat = glm::mat4(1.0f)。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们需要的GLM的大多数功能都可以从下面这3个头文件中找到：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#include &lt;glm/glm.hpp&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#include &lt;glm/gtc/matrix_transform.hpp&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>#include &lt;glm/gtc/type_ptr.hpp&gt;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用我们刚学的变换知识把一个向量(1, 0, 0)位移(1, 1, 0)个单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>注意，我们把它定义为一个glm::vec4类型的值，齐次坐标设定为1.0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glm::vec4 vec(1.0f, 0.0f, 0.0f, 1.0f);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 译注：下面就是矩阵初始化的一个例子，如果使用的是0.9.9及以上版本</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// 下面这行代码就需要改为:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>// glm::mat4 trans = glm::mat4(1.0f)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glm::mat4 trans;</t>
+  </si>
+  <si>
+    <t>glm::mat4 trans;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trans = glm::translate(trans, glm::vec3(1.0f, 1.0f, 0.0f));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vec = trans * vec;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>std::cout &lt;&lt; vec.x &lt;&lt; vec.y &lt;&lt; vec.z &lt;&lt; std::endl;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们先用GLM内建的向量类定义一个叫做vec的向量。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>接下来定义一个</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>mat4</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>类型的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF333333"/>
+        <rFont val="Consolas"/>
+        <family val="3"/>
+      </rPr>
+      <t>trans</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF222222"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>，默认是一个4×4单位矩阵。</t>
+    </r>
+  </si>
+  <si>
+    <t>下一步是创建一个变换矩阵，我们是把单位矩阵和一个位移向量传递给glm::translate函数来完成这个工作的（然后用给定的矩阵乘以位移矩阵就能获得最后需要的矩阵）。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>让我们来旋转和缩放之前教程中的那个箱子。首先我们把箱子逆时针旋转90度。然后缩放0.5倍，</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使它变成原来的一半大。我们先来创建变换矩阵：</t>
+  </si>
+  <si>
+    <t>trans = glm::rotate(trans, glm::radians(90.0f), glm::vec3(0.0, 0.0, 1.0));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>trans = glm::scale(trans, glm::vec3(0.5, 0.5, 0.5));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>首先，我们把箱子在每个轴都缩放到0.5倍，然后沿z轴旋转90度。GLM希望它的角度是弧度制的(Radian)，所以我们使用glm::radians将角度转化为弧度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为我们把这个矩阵传递给了GLM的每个函数，GLM会自动将矩阵相乘，返回的结果是一个包括了多个变换的变换矩阵。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如何把矩阵传递给着色器？我们在前面简单提到过GLSL里也有一个mat4类型。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所以我们将修改顶点着色器让其接收一个mat4的uniform变量，然后再用矩阵uniform乘以位置向量：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>layout (location = 1) in vec2 aTexCoord;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>uniform mat4 transform;</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    gl_Position = transform * vec4(aPos, 1.0f);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    TexCoord = vec2(aTexCoord.x, 1.0 - aTexCoord.y);</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在把位置向量传给gl_Position之前，我们先添加一个uniform，并且将其与变换矩阵相乘。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们的箱子现在应该是原来的二分之一大小并（向左）旋转了90度。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当然，我们仍需要把变换矩阵传递给着色器：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unsigned int transformLoc = glGetUniformLocation(ourShader.ID, "transform");</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glUniformMatrix4fv(transformLoc, 1, GL_FALSE, glm::value_ptr(trans));</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一个参数你现在应该很熟悉了，它是uniform的位置值。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二个参数告诉OpenGL我们将要发送多少个矩阵，这里是1。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三个参数询问我们是否希望对我们的矩阵进行转置(Transpose)，也就是说交换我们矩阵的行和列。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OpenGL开发者通常使用一种内部矩阵布局，叫做列主序(Column-major Ordering)布局。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GLM的默认布局就是列主序，所以并不需要转置矩阵，我们填GL_FALSE。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最后一个参数是真正的矩阵数据，但是GLM并不是把它们的矩阵储存为OpenGL所希望接受的那种，因此我们要先用GLM的自带的函数value_ptr来变换这些数据。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="34" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1632,6 +2446,87 @@
       <name val="Consolas"/>
       <family val="3"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8.8000000000000007"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8.8000000000000007"/>
+      <color rgb="FF008000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8.8000000000000007"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF008000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -1775,7 +2670,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1844,6 +2739,10 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="32" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2191,6 +3090,671 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>60104</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BC6C759-8107-E9A1-AADA-01339370665A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="4410075"/>
+          <a:ext cx="2543175" cy="2527079"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>630441</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F30DC096-4E01-DD07-6610-77F9FF071E8E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="228601" y="7877176"/>
+          <a:ext cx="2459240" cy="2466974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>257176</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>9526</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>117655</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEDAA7F4-A22C-6777-F5EC-6A8A50DFA1EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="257176" y="11210925"/>
+          <a:ext cx="2495550" cy="2479855"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>110</xdr:row>
+      <xdr:rowOff>85911</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="图片 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E7A88A6-240F-98A1-022E-34953F76BA1C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="266700" y="17840325"/>
+          <a:ext cx="2105025" cy="2162361"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>618490</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>18958</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{99AC1EDC-4820-F7B9-0CE9-1C7093E18251}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="342900" y="24993600"/>
+          <a:ext cx="5076190" cy="733333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>161</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>647277</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>28417</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="图片 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{05D59D76-4C86-F4A4-88EE-E09555C92161}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="29175075"/>
+          <a:ext cx="3380952" cy="1266667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>192</xdr:row>
+      <xdr:rowOff>51951</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13F34594-08E1-B8D5-F3E7-9E3D897AAD28}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476250" y="32165925"/>
+          <a:ext cx="2676525" cy="2642751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>256850</xdr:colOff>
+      <xdr:row>208</xdr:row>
+      <xdr:rowOff>142711</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C00A5F10-E04E-5FEC-14E1-1AEF846F1F2E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="36490275"/>
+          <a:ext cx="2600000" cy="1314286"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>214</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266354</xdr:colOff>
+      <xdr:row>221</xdr:row>
+      <xdr:rowOff>66518</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA1915A9-84E6-F70B-FED6-10CE5AD1177F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="238125" y="38823900"/>
+          <a:ext cx="2771429" cy="1257143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>226</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>494356</xdr:colOff>
+      <xdr:row>235</xdr:row>
+      <xdr:rowOff>123621</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="图片 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2656AF3-4924-E0B3-A61B-258C9FF44B81}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="485775" y="41043225"/>
+          <a:ext cx="7552381" cy="1628571"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>239</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>390036</xdr:colOff>
+      <xdr:row>246</xdr:row>
+      <xdr:rowOff>123673</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="图片 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A32E4ECB-A19B-CDA3-9A1C-010804F49A68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="590550" y="43443525"/>
+          <a:ext cx="3914286" cy="1219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>249</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>590132</xdr:colOff>
+      <xdr:row>255</xdr:row>
+      <xdr:rowOff>114164</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2BBB3D2D-D7C8-D62F-09F1-41D50EA96A79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="676275" y="45196125"/>
+          <a:ext cx="3342857" cy="1085714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>257</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>18602</xdr:colOff>
+      <xdr:row>264</xdr:row>
+      <xdr:rowOff>37958</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6D77D526-EAC4-BFFC-1560-4A2FE16182EE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="552450" y="46701075"/>
+          <a:ext cx="3580952" cy="1133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>270</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>47069</xdr:colOff>
+      <xdr:row>278</xdr:row>
+      <xdr:rowOff>9363</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="图片 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75C44EF3-34E6-AB5F-537B-B475E599CCA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="400050" y="49044225"/>
+          <a:ext cx="4447619" cy="1295238"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>336</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>218117</xdr:colOff>
+      <xdr:row>341</xdr:row>
+      <xdr:rowOff>142745</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9B70A0F-5F1E-EAFF-FA8B-0467F9511126}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="95250" y="60845700"/>
+          <a:ext cx="7666667" cy="1038095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3085,7 +4649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7855511-B10F-4580-8BDB-E423CB7F2581}">
   <dimension ref="A2:G330"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A283" workbookViewId="0">
+    <sheetView topLeftCell="A283" workbookViewId="0">
       <selection activeCell="A330" sqref="A330"/>
     </sheetView>
   </sheetViews>
@@ -3961,4 +5525,747 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A549F76-3C0F-4FAB-94BB-520603EB9650}">
+  <dimension ref="A4:A355"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A313" workbookViewId="0">
+      <selection activeCell="B358" sqref="B358"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" s="8" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="8" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="8"/>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A59" s="8" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="8" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A91" s="35" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A113" s="8" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A119" s="38" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A126" s="38" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A127" s="12" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A132" s="38" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A135" s="39" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A136" s="39" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A150" s="8" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A153" s="12" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A157" s="8" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A171" s="8" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A172" s="1" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A177" s="40" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A195" s="12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A196" s="1" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A197" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A199" s="1" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A200" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A201" s="35" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A211" s="8" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A212" s="1" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A213" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A214" s="1" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A223" s="8" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A225" s="1" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A226" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A238" s="1" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A239" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A249" s="1" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A257" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A267" s="8" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A268" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A269" s="1" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A270" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A281" s="1" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A282" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A283" s="8" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A285" s="8" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A286" s="41" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A287" s="1" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A288" s="1" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A289" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A291" s="1" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A292" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A293" s="1" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A294" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A297" s="1" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A298" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A300" s="1" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A301" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A302" s="1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A303" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A304" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A305" s="1" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A306" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A307" s="1" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A309" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A310" s="12" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A311" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A313" s="1" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A314" s="12" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A315" s="24" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A316" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A317" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A318" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A319" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A321" s="1" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A322" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A323" s="1" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A324" s="1" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A325" s="1" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A327" s="1" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A329" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A331" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A332" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A333" s="1" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A334" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A335" s="1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A344" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A345" s="1" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A346" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A347" s="1" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A348" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A350" s="1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A351" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A352" s="1" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A353" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A354" s="1" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A355" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/opengl学习.xlsx
+++ b/opengl学习.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\openglwrok\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9284E381-7B75-4499-8F27-2078176F4F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9557071B-5099-4430-87A4-721BC1AE7C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
